--- a/public/rev_io_customers.xlsx
+++ b/public/rev_io_customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4C8CE6-4354-40A4-8A6F-5BF16219B91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A382438-5F5C-40FF-B9CA-E45CF9DEBB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10673,7 +10673,7 @@
     <t>Last modified by</t>
   </si>
   <si>
-    <t>Created date &amp; time</t>
+    <t>Last modified date &amp; time</t>
   </si>
 </sst>
 </file>
@@ -11043,7 +11043,7 @@
   <dimension ref="A1:H1712"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -11055,7 +11055,7 @@
     <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>

--- a/public/rev_io_customers.xlsx
+++ b/public/rev_io_customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A382438-5F5C-40FF-B9CA-E45CF9DEBB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C397BED5-4F28-4622-BADF-7887F601718A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="3551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6840" uniqueCount="3571">
   <si>
     <t>Agent</t>
   </si>
@@ -10674,6 +10674,66 @@
   </si>
   <si>
     <t>Last modified date &amp; time</t>
+  </si>
+  <si>
+    <t>jareen</t>
+  </si>
+  <si>
+    <t>10/07/2024 10:32PM</t>
+  </si>
+  <si>
+    <t>anjani</t>
+  </si>
+  <si>
+    <t>15/03/2024 11:03PM</t>
+  </si>
+  <si>
+    <t>sindhuja</t>
+  </si>
+  <si>
+    <t>22/05/2024 9:32AM</t>
+  </si>
+  <si>
+    <t>manoj</t>
+  </si>
+  <si>
+    <t>17/05/2024 5:32PM</t>
+  </si>
+  <si>
+    <t>lohitha</t>
+  </si>
+  <si>
+    <t>27/06/2024 08:32AM</t>
+  </si>
+  <si>
+    <t>gopi</t>
+  </si>
+  <si>
+    <t>13/05/2024 07:15PM</t>
+  </si>
+  <si>
+    <t>phani</t>
+  </si>
+  <si>
+    <t>25/06/2024 09:45AM</t>
+  </si>
+  <si>
+    <t>pooja</t>
+  </si>
+  <si>
+    <t>12/06/2024 10:35PM</t>
+  </si>
+  <si>
+    <t>nikhil</t>
+  </si>
+  <si>
+    <t>23/06/2024 8:22AM</t>
+  </si>
+  <si>
+    <t>tejaswini</t>
+  </si>
+  <si>
+    <t>17/06/2024 9:38PM</t>
   </si>
 </sst>
 </file>
@@ -10688,11 +10748,13 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -11043,10 +11105,10 @@
   <dimension ref="A1:H1712"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="1" customWidth="1"/>
@@ -11054,8 +11116,8 @@
     <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" customWidth="1"/>
     <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
@@ -11078,10 +11140,10 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>3549</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>3550</v>
       </c>
     </row>
@@ -11104,6 +11166,12 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>3551</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3552</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -11124,6 +11192,12 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>3553</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3554</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -11141,6 +11215,12 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
+      <c r="G4" t="s">
+        <v>3555</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3556</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
@@ -11161,6 +11241,12 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
+      <c r="G5" t="s">
+        <v>3557</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3558</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -11181,6 +11267,12 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
+      <c r="G6" t="s">
+        <v>3559</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3560</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -11201,6 +11293,12 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
+      <c r="G7" t="s">
+        <v>3561</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3562</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -11221,6 +11319,12 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
+      <c r="G8" t="s">
+        <v>3563</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3564</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -11241,6 +11345,12 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
+      <c r="G9" t="s">
+        <v>3565</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3566</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -11258,6 +11368,12 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
+      <c r="G10" t="s">
+        <v>3567</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3568</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -11271,6 +11387,12 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3569</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3570</v>
       </c>
     </row>
     <row r="12" spans="1:8">
